--- a/clamps/CL3/Partlist.xlsx
+++ b/clamps/CL3/Partlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Block Name</t>
   </si>
@@ -194,10 +194,10 @@
     <t>RFL</t>
   </si>
   <si>
-    <t>SS Polished</t>
-  </si>
-  <si>
     <t>Polish</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -640,9 +640,6 @@
       <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -658,6 +655,9 @@
       <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -672,6 +672,9 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -688,6 +691,9 @@
       <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -947,7 +953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -959,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -971,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -985,23 +991,29 @@
       <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -1030,26 +1042,32 @@
       <c r="D38" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -1063,8 +1081,11 @@
       <c r="D40" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -1093,8 +1114,11 @@
       <c r="D42" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1108,8 +1132,11 @@
       <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +1151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -1139,7 +1166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1153,8 +1180,11 @@
       <c r="D46" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1166,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1180,8 +1210,11 @@
       <c r="D48" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1195,8 +1228,11 @@
       <c r="D49" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1209,6 +1245,9 @@
       </c>
       <c r="D50" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
